--- a/final_dataframe.xlsx
+++ b/final_dataframe.xlsx
@@ -419,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/final_dataframe.xlsx
+++ b/final_dataframe.xlsx
@@ -38,15 +38,6 @@
     <t>Covid deaths</t>
   </si>
   <si>
-    <t>S&amp;P500 index</t>
-  </si>
-  <si>
-    <t>S&amp;P500 volume</t>
-  </si>
-  <si>
-    <t>NASDAQ index</t>
-  </si>
-  <si>
     <t>NASDAQ volume</t>
   </si>
   <si>
@@ -66,6 +57,15 @@
   </si>
   <si>
     <t>Number of homes sold</t>
+  </si>
+  <si>
+    <t>S_P_500 volume</t>
+  </si>
+  <si>
+    <t>S_P_500 close</t>
+  </si>
+  <si>
+    <t>NASDAQ close</t>
   </si>
 </sst>
 </file>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,34 +454,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
